--- a/Excel/20-div-25q1.xlsx
+++ b/Excel/20-div-25q1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8862359375ebd62/A5/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="11_085DC34F1541CCDEE54878D6426F86FB91F581CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F09715A-A428-41BF-8D3B-E8905B844899}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="11_085DC34F1541CCDEE54878D6426F86FB91F581CB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D942B19-7368-4592-8B4B-EE7282A04690}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1260" windowWidth="10536" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8544" yWindow="1284" windowWidth="13848" windowHeight="10152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,16 +124,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="[$฿-41E]#,##0.00"/>
+    <numFmt numFmtId="187" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="188" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="189" formatCode="0.0000"/>
+    <numFmt numFmtId="190" formatCode="[$฿-41E]#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +146,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,25 +191,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="189" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="190" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -226,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,19 +516,20 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="5" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="9"/>
+    <col min="3" max="3" width="8.8984375" style="7"/>
+    <col min="4" max="4" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -586,7 +583,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -612,7 +609,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -640,7 +637,7 @@
         <v>45814</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -666,7 +663,7 @@
         <v>45817</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -694,7 +691,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -720,7 +717,7 @@
         <v>45820</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -748,7 +745,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -776,7 +773,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="5">
         <f>SUM(D2:D9)</f>
         <v>55625</v>
@@ -790,7 +787,7 @@
         <v>24033</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -818,7 +815,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -846,7 +843,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -874,7 +871,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -902,7 +899,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -930,7 +927,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -958,7 +955,7 @@
         <v>45812</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -969,7 +966,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -980,7 +977,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D19" s="10"/>
       <c r="E19" s="10">
         <f>E17+E18</f>
@@ -988,7 +985,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1044,7 +1041,7 @@
         <v>45813</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="10"/>
       <c r="E22" s="12">
         <f>SUM(E20:E21)</f>
